--- a/Project_5_радиоинженер/Таблица шлейфов.xlsx
+++ b/Project_5_радиоинженер/Таблица шлейфов.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Александр\Downloads\Отчет\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsr\Documents\GitHub\worldskills\Project_5_радиоинженер\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E43C07-AC1D-45F1-A357-8EB493F226EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11550"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>№</t>
   </si>
@@ -210,12 +209,18 @@
   </si>
   <si>
     <t>☐ 27</t>
+  </si>
+  <si>
+    <t>☐ 28</t>
+  </si>
+  <si>
+    <t>Резервный СЭП-Драйвер шагового двигателя</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -567,11 +572,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection sqref="A1:F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1141,6 +1146,25 @@
         <v>☐ 27-830</v>
       </c>
     </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="3">
+        <v>350</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" ref="D29" si="2">C29+40</f>
+        <v>390</v>
+      </c>
+      <c r="F29" s="4" t="str">
+        <f t="shared" ref="F29" si="3">CONCATENATE(A29,"-",D29)</f>
+        <v>☐ 28-390</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
